--- a/biology/Biochimie/5'-Ribonucléotide_disodique/5'-Ribonucléotide_disodique.xlsx
+++ b/biology/Biochimie/5'-Ribonucléotide_disodique/5'-Ribonucléotide_disodique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5%27-Ribonucl%C3%A9otide_disodique</t>
+          <t>5'-Ribonucléotide_disodique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’additif alimentaire 5'-ribonucléotide disodique (E635)[1] est une préparation composée de deux exhausteurs de goût : l'inosinate disodique (E631) et le guanylate disodique (E627). Il s'apparente au 5'-ribonucléotide calcique (E634).
-Ce mélange est largement utilisé par l’industrie alimentaire pour augmenter l'intensité de la perception olfacto-gustative (goût et/ou l'odeur) d'une denrée alimentaire. Il agit en synergie avec le glutamate monosodique (E621). En effet, un mélange composé de 98 % de glutamate monosodique et de 2 % de 5'-ribonucléotide disodique a une intensité quatre fois supérieure à celle du glutamate monosodique utilisé seul[2].
-On le trouve sous forme de poudre blanche et inodore[1]. Le mélange est soluble dans l'eau et l'éthanol, et insoluble dans l'éther[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’additif alimentaire 5'-ribonucléotide disodique (E635) est une préparation composée de deux exhausteurs de goût : l'inosinate disodique (E631) et le guanylate disodique (E627). Il s'apparente au 5'-ribonucléotide calcique (E634).
+Ce mélange est largement utilisé par l’industrie alimentaire pour augmenter l'intensité de la perception olfacto-gustative (goût et/ou l'odeur) d'une denrée alimentaire. Il agit en synergie avec le glutamate monosodique (E621). En effet, un mélange composé de 98 % de glutamate monosodique et de 2 % de 5'-ribonucléotide disodique a une intensité quatre fois supérieure à celle du glutamate monosodique utilisé seul.
+On le trouve sous forme de poudre blanche et inodore. Le mélange est soluble dans l'eau et l'éthanol, et insoluble dans l'éther.
 </t>
         </is>
       </c>
